--- a/pred_ohlcv/54_21/2020-01-24 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 MTL ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>-1750.943478769976</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1800.943478769976</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1773.306178769976</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1773.306178769976</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1592.359021230024</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1592.359021230024</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1392.359021230024</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-10128.06707876998</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-25128.06707876998</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-25128.06707876998</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-32283.85853594998</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-32283.85853594998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-32405.79483594998</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-137289.55215329</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-137289.55215329</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-137266.14979699</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-143753.27499699</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-146374.05069699</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-146374.05069699</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-165352.649815</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-165352.649815</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-169342.184915</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-169342.184915</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-168283.184915</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-168283.184915</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-170561.211815</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-148965.8897713</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-146485.4544712999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-148199.9202713</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-151066.4515712999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-151066.4515712999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-157066.4515712999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-160066.4515712999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-160206.4515712999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-160206.4515712999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-168249.3484712999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-197558.5944712999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-199558.5944712999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-313104.11099568</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-312967.84019568</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-313540.98399568</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-313131.70919568</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-306653.21019568</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-307305.45139568</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-303570.38279568</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-303666.82269568</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-304311.28099568</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-306087.71459568</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-307110.14899568</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-309110.14899568</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-320366.53879568</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-304609.96119568</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-297388.36119568</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-296982.11119568</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-296982.11119568</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-294153.8111956801</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-257912.4520956801</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-257983.0423956801</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 MTL ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>-22069.66297876998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-25533.36297876998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-25664.16297876998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-25453.16297876998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-26513.16297876998</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-24790.94987876998</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1750.943478769976</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1750.943478769976</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1800.943478769976</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-1773.306178769976</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1773.306178769976</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1592.359021230024</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1592.359021230024</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1392.359021230024</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-10128.06707876998</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-25128.06707876998</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-25128.06707876998</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-32283.85853594998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-32283.85853594998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-32405.79483594998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-62818.98135759999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-63791.18895759999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-137289.55215329</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-137289.55215329</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-137266.14979699</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-137398.94979699</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-143753.27499699</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-146374.05069699</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-146374.05069699</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-165352.649815</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-165352.649815</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-167400.955015</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-169342.184915</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-169342.184915</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-168283.184915</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-168283.184915</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-170561.211815</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-148965.8897713</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-146485.4544712999</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-148199.9202713</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-150938.7581712999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-151066.4515712999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-151066.4515712999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-157066.4515712999</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-160066.4515712999</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-160206.4515712999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-160206.4515712999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-168249.3484712999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-197558.5944712999</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-199558.5944712999</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-302362.96359568</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-313104.11099568</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-312967.84019568</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-313540.98399568</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-313131.70919568</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-306653.21019568</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-307293.81549568</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-303570.38279568</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-303866.82269568</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-303666.82269568</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-304311.28099568</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-306087.71459568</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-305844.8917956799</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-304940.36779568</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-307110.14899568</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-309110.14899568</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-321029.57459568</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-320366.53879568</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-299428.10149568</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-291584.57209568</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-301290.96119568</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-304609.96119568</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-297388.36119568</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-296982.11119568</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-296982.11119568</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-294153.8111956801</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-287002.8111956801</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-290385.0358956801</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-257912.4520956801</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-257983.0423956801</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
